--- a/data/Simulations/HR1_2/A_BJ_35_2/A_BJ_35_2_2030.xlsx
+++ b/data/Simulations/HR1_2/A_BJ_35_2/A_BJ_35_2_2030.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\Simulations\HR1_2\A_BJ_35_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE599DC-EF02-4487-BBB5-C7ACFE35ACAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F5D009-771B-4258-AA4F-9AD285269E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13839,24 +13839,12 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="2">
-          <cell r="B2">
-            <v>18.309999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="2">
-          <cell r="B2">
-            <v>6.52</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -14127,7 +14115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -47644,7 +47632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D5DE22-F34A-4B52-AE67-05B8F5BFB12A}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
